--- a/biology/Histoire de la zoologie et de la botanique/Sander_Rang/Sander_Rang.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sander_Rang/Sander_Rang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Charles Léonard Alexandre Rang des Adrets, dit Sander Rang, est un malacologiste et naturaliste français né en 1793 et mort en 1844. Il est, en 1816, l'un des survivants du naufrage de la frégate La Méduse, au bord de laquelle il était enseigne de vaisseau.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sander Rang est né dans une famille d'ancienne bourgeoisie protestante originaire du Vivarais[1], issue d'Alexandre Rang des Adrets (1722-1792), pasteur, bourgeois de Crest, dans la Drôme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sander Rang est né dans une famille d'ancienne bourgeoisie protestante originaire du Vivarais, issue d'Alexandre Rang des Adrets (1722-1792), pasteur, bourgeois de Crest, dans la Drôme.
 Son père, Jean-Alexandre Rang des Adrets (1757-1824), pasteur, s'est exilé à Utrecht, puis il s'est établi à La Rochelle. Sander Rang est né à Utrecht (Pays-Bas) en 1793. Il passe une bonne partie de sa vie à La Rochelle, où il publie ses observations zoologiques notamment dans les bulletins de la Société des sciences naturelles de la Charente-Inférieure. Promu au grade de capitaine de corvette, il est capitaine du port d'Alger en 1834. Il est nommé administrateur de Mayotte en 1842. Il meurt à Mayotte en 1844.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Atlas des mollusques composé de 51 planches représentant la plupart des mollusques nus et des coquilles décrits dans le Manuel d’histoire naturelle, Paris, Éd. Roret, [1843], 16 p., in-16 (lire en ligne [PDF]). — Les 51 pl. sont regroupées à la suite du texte.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Atlas des mollusques composé de 51 planches représentant la plupart des mollusques nus et des coquilles décrits dans le Manuel d’histoire naturelle, Paris, Éd. Roret, , 16 p., in-16 (lire en ligne [PDF]). — Les 51 pl. sont regroupées à la suite du texte.
 « Description d’un genre nouveau de la classe des Ptéropodes et de deux espèces nouvelles du genre Clio », Annales des sciences naturelles, Paris, Éd. Béchet jeune, vol. 5,‎ 1825, p. 283-287 (lire en ligne [PDF], consulté le 18 octobre 2016).
 « Description d’une espèce d’Hyale à l’état fossile », Mémoires de la Société d’histoire naturelle de Paris, Paris, Éd. Baudouin frères, vol. 3,‎ 1827, p. 382-383 (lire en ligne [PDF]).
 « Description de cinq espèces de coquilles fossiles appartenant à la classe des Ptéropodes », Annales des sciences naturelles, Paris, Éd. Crochard, vol. 16,‎ 1829, p. 492-499 (lire en ligne [PDF]).
@@ -561,7 +577,7 @@
 Magasin de zoologie  (publié par Félix Édouard Guérin-Méneville), Paris, Éd. Lequien puis Arthus Bertrand, 1831-1845, in-8° (lire en ligne [PDF]). — Nombreuses contributions de Sander Rang dans ce périodique qui devient, en 1839 : Magasin de zoologie, d’anatomie comparée et de palæontologie (lire en ligne [PDF]).
 Manuel de l’histoire naturelle des mollusques et de leurs coquilles…, Paris, Éd. Roret, 1829, IV-390 p., in-18 (lire en ligne [PDF]).
 Mémoire sur le genre Éthérie et description de son animal  (avec la collab. de Caillaud), 1834, 16 p. (lire en ligne [PDF]). — Extrait des Nouvelles Annales du Muséum d’histoire naturelle, t. 3, p. 128 et suivantes.
-Mémoire sur le genre Gnatodon et description de son animal, Paris, Impr. de Jules Didot l’aîné, [1834], 13 p., in-8° (lire en ligne [PDF]). — Extrait des Nouvelles Annales du Muséum d’histoire naturelle, tome 3, p. 217 et suivantes.
+Mémoire sur le genre Gnatodon et description de son animal, Paris, Impr. de Jules Didot l’aîné, , 13 p., in-8° (lire en ligne [PDF]). — Extrait des Nouvelles Annales du Muséum d’histoire naturelle, tome 3, p. 217 et suivantes.
 « Mémoire sur quelques Acéphales d’eau douce du Sénégal, pour servir à la malacologie de l’Afrique occidentale », Nouvelles annales du Muséum d’histoire naturelle, Paris, Libr. encyclopédique de Roret, vol. 4,‎ 1835, p. 297-320 (lire en ligne [PDF], consulté le 18 octobre 2016).
 « Note sur le Ropan d’Adanson et quelques autres observations sur les mollusques », Annales des sciences naturelles, Paris, Éd. Crochard, vol. 21,‎ 1830, p. 352 (chiffrée par erreur 351) (lire en ligne [PDF]).
 « Notice sur la Galathée, genre de mollusque acéphale de la famille des Conchacées », Annales des sciences naturelles, Paris, Éd. Crochard, vol. 25,‎ 1832, p. 152-164 (lire en ligne [PDF]).
@@ -571,7 +587,7 @@
 « Observations sur le genre Atlante », Mémoires de la Société d’histoire naturelle de Paris, Paris, Éd. Baudouin frères, vol. 3,‎ 1827, p. 372-381 (lire en ligne [PDF]).
 Port d’Alger : projet Rang, du 5 avril 1840, Paris, Impr. de H. Fournier, 1842, 8 p., in-4°. (Voir plus bas : Projets divers pour le port d'Alger.)
 « Précis analytique de l’histoire d’Alger sous l’occupation turque », dans Ministère de la Guerre, Tableau de la situation des établissements français dans l’Algérie en 1841, Paris, Impr. royale, décembre 1842, 445 p., in-4° (lire en ligne [PDF]), p. 415-440.
-Sander Rang, Victor Poirel, Antoine Dominique Raffeneau de Lile et al., Projets divers pour le port d’Alger, [1842], 1 feuille 86,5 x 71,5 cm (lire en ligne [PDF]). — Cette feuille regroupe 9 plans différents dont celui de Sander Rang.
+Sander Rang, Victor Poirel, Antoine Dominique Raffeneau de Lile et al., Projets divers pour le port d’Alger, , 1 feuille 86,5 x 71,5 cm (lire en ligne [PDF]). — Cette feuille regroupe 9 plans différents dont celui de Sander Rang.
 Voyage au Sénégal ; Naufrage de La Méduse  (ill. Philippe Ledoux), Paris, Éd. E.P.I., 1946, 121 p., in-8°. — Repris dans les recueils suivants : Relation complète du naufrage de la frégate La Méduse, faisant partie de l’expédition du Sénégal en 1816, Paris, Éd. J. de Bonnot, 1968, 419 p., in-8° ; Les Naufragés : témoignages vécus, XVIIe – XXe siècle  (présentation Dominique Le Brun), Paris, Éd. Omnibus, 2014, 906 p., in-8° (ISBN 978-2-258-10649-9).</t>
         </is>
       </c>
